--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgb5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H2">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I2">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J2">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N2">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O2">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P2">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q2">
-        <v>97.87002763243983</v>
+        <v>7.142293956534334</v>
       </c>
       <c r="R2">
-        <v>97.87002763243983</v>
+        <v>64.280645608809</v>
       </c>
       <c r="S2">
-        <v>0.0002991241555955092</v>
+        <v>2.02434945635158E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002991241555955092</v>
+        <v>2.02434945635158E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H3">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I3">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J3">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N3">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O3">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P3">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q3">
-        <v>484.9764182725209</v>
+        <v>33.20783217824033</v>
       </c>
       <c r="R3">
-        <v>484.9764182725209</v>
+        <v>298.870489604163</v>
       </c>
       <c r="S3">
-        <v>0.001482253199562991</v>
+        <v>9.412138092570842E-05</v>
       </c>
       <c r="T3">
-        <v>0.001482253199562991</v>
+        <v>9.412138092570843E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H4">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I4">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J4">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N4">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O4">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P4">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q4">
-        <v>995.1516068419674</v>
+        <v>71.09562066248468</v>
       </c>
       <c r="R4">
-        <v>995.1516068419674</v>
+        <v>639.8605859623621</v>
       </c>
       <c r="S4">
-        <v>0.003041522428133567</v>
+        <v>0.0002015072215074646</v>
       </c>
       <c r="T4">
-        <v>0.003041522428133567</v>
+        <v>0.0002015072215074647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H5">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I5">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J5">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N5">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O5">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P5">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q5">
-        <v>1125.420644114634</v>
+        <v>76.83524382417268</v>
       </c>
       <c r="R5">
-        <v>1125.420644114634</v>
+        <v>691.5171944175539</v>
       </c>
       <c r="S5">
-        <v>0.003439668997793985</v>
+        <v>0.0002177751084044973</v>
       </c>
       <c r="T5">
-        <v>0.003439668997793985</v>
+        <v>0.0002177751084044973</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H6">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I6">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J6">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N6">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O6">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P6">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q6">
-        <v>211.4384173905772</v>
+        <v>14.39956657748467</v>
       </c>
       <c r="R6">
-        <v>211.4384173905772</v>
+        <v>129.596099197362</v>
       </c>
       <c r="S6">
-        <v>0.0006462278553750375</v>
+        <v>4.081287461735032E-05</v>
       </c>
       <c r="T6">
-        <v>0.0006462278553750375</v>
+        <v>4.081287461735032E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H7">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I7">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J7">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N7">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O7">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P7">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q7">
-        <v>151.9966706049836</v>
+        <v>10.743396728735</v>
       </c>
       <c r="R7">
-        <v>151.9966706049836</v>
+        <v>96.69057055861501</v>
       </c>
       <c r="S7">
-        <v>0.0004645536212454734</v>
+        <v>3.045014593285803E-05</v>
       </c>
       <c r="T7">
-        <v>0.0004645536212454734</v>
+        <v>3.045014593285803E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H8">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I8">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J8">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N8">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O8">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P8">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q8">
-        <v>4147.701771560595</v>
+        <v>114.6268721559383</v>
       </c>
       <c r="R8">
-        <v>4147.701771560595</v>
+        <v>1031.641849403445</v>
       </c>
       <c r="S8">
-        <v>0.01267679002543602</v>
+        <v>0.0003248884010435651</v>
       </c>
       <c r="T8">
-        <v>0.01267679002543602</v>
+        <v>0.0003248884010435652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H9">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I9">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J9">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N9">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O9">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P9">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q9">
-        <v>20553.15194952808</v>
+        <v>532.9534120040682</v>
       </c>
       <c r="R9">
-        <v>20553.15194952808</v>
+        <v>4796.580708036614</v>
       </c>
       <c r="S9">
-        <v>0.06281743625145349</v>
+        <v>0.001510556631268455</v>
       </c>
       <c r="T9">
-        <v>0.06281743625145349</v>
+        <v>0.001510556631268456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H10">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I10">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J10">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N10">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O10">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P10">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q10">
-        <v>42174.2200602146</v>
+        <v>1141.015571484556</v>
       </c>
       <c r="R10">
-        <v>42174.2200602146</v>
+        <v>10269.14014336101</v>
       </c>
       <c r="S10">
-        <v>0.1288987882049951</v>
+        <v>0.003233994940393413</v>
       </c>
       <c r="T10">
-        <v>0.1288987882049951</v>
+        <v>0.003233994940393415</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H11">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I11">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J11">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N11">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O11">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P11">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q11">
-        <v>47694.98192925733</v>
+        <v>1233.130941473796</v>
       </c>
       <c r="R11">
-        <v>47694.98192925733</v>
+        <v>11098.17847326417</v>
       </c>
       <c r="S11">
-        <v>0.1457721177857658</v>
+        <v>0.003495078704649212</v>
       </c>
       <c r="T11">
-        <v>0.1457721177857658</v>
+        <v>0.003495078704649213</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H12">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I12">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J12">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N12">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O12">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P12">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q12">
-        <v>8960.695318085131</v>
+        <v>231.0990400595566</v>
       </c>
       <c r="R12">
-        <v>8960.695318085131</v>
+        <v>2079.89136053601</v>
       </c>
       <c r="S12">
-        <v>0.02738693842651394</v>
+        <v>0.0006550069472846774</v>
       </c>
       <c r="T12">
-        <v>0.02738693842651394</v>
+        <v>0.0006550069472846775</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H13">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I13">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J13">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N13">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O13">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P13">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q13">
-        <v>6441.5723096275</v>
+        <v>172.421069594675</v>
       </c>
       <c r="R13">
-        <v>6441.5723096275</v>
+        <v>1551.789626352075</v>
       </c>
       <c r="S13">
-        <v>0.01968764007159712</v>
+        <v>0.0004886952296022602</v>
       </c>
       <c r="T13">
-        <v>0.01968764007159712</v>
+        <v>0.0004886952296022604</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H14">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I14">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J14">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N14">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O14">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P14">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q14">
-        <v>2058.424389592511</v>
+        <v>4883.396732110406</v>
       </c>
       <c r="R14">
-        <v>2058.424389592511</v>
+        <v>43950.57058899365</v>
       </c>
       <c r="S14">
-        <v>0.006291246383483948</v>
+        <v>0.01384107344217128</v>
       </c>
       <c r="T14">
-        <v>0.006291246383483948</v>
+        <v>0.01384107344217129</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H15">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I15">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J15">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N15">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O15">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P15">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q15">
-        <v>10200.13288949441</v>
+        <v>22705.17289355284</v>
       </c>
       <c r="R15">
-        <v>10200.13288949441</v>
+        <v>204346.5560419756</v>
       </c>
       <c r="S15">
-        <v>0.03117508200764706</v>
+        <v>0.06435356019109456</v>
       </c>
       <c r="T15">
-        <v>0.03117508200764706</v>
+        <v>0.06435356019109457</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H16">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I16">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J16">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N16">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O16">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P16">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q16">
-        <v>20930.25197212378</v>
+        <v>48610.16974706055</v>
       </c>
       <c r="R16">
-        <v>20930.25197212378</v>
+        <v>437491.527723545</v>
       </c>
       <c r="S16">
-        <v>0.06396998242480921</v>
+        <v>0.1377764221123836</v>
       </c>
       <c r="T16">
-        <v>0.06396998242480921</v>
+        <v>0.1377764221123836</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H17">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I17">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J17">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N17">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O17">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P17">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q17">
-        <v>23670.09960492359</v>
+        <v>52534.51914543407</v>
       </c>
       <c r="R17">
-        <v>23670.09960492359</v>
+        <v>472810.6723089067</v>
       </c>
       <c r="S17">
-        <v>0.07234389044800414</v>
+        <v>0.1488992555038363</v>
       </c>
       <c r="T17">
-        <v>0.07234389044800414</v>
+        <v>0.1488992555038363</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H18">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I18">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J18">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N18">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O18">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P18">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q18">
-        <v>4447.020255150565</v>
+        <v>9845.407763420557</v>
       </c>
       <c r="R18">
-        <v>4447.020255150565</v>
+        <v>88608.669870785</v>
       </c>
       <c r="S18">
-        <v>0.01359160930998991</v>
+        <v>0.02790496439201581</v>
       </c>
       <c r="T18">
-        <v>0.01359160930998991</v>
+        <v>0.02790496439201581</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H19">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I19">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J19">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N19">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O19">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P19">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q19">
-        <v>3196.828094145266</v>
+        <v>7345.576756732573</v>
       </c>
       <c r="R19">
-        <v>3196.828094145266</v>
+        <v>66110.19081059315</v>
       </c>
       <c r="S19">
-        <v>0.009770596038211879</v>
+        <v>0.02081966158852384</v>
       </c>
       <c r="T19">
-        <v>0.009770596038211879</v>
+        <v>0.02081966158852385</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H20">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I20">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J20">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N20">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O20">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P20">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q20">
-        <v>3892.047648830053</v>
+        <v>2258.108159634062</v>
       </c>
       <c r="R20">
-        <v>3892.047648830053</v>
+        <v>20322.97343670656</v>
       </c>
       <c r="S20">
-        <v>0.01189542390716452</v>
+        <v>0.006400184664978941</v>
       </c>
       <c r="T20">
-        <v>0.01189542390716452</v>
+        <v>0.006400184664978941</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H21">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I21">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J21">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N21">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O21">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P21">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q21">
-        <v>19286.3062792264</v>
+        <v>10498.99055706594</v>
       </c>
       <c r="R21">
-        <v>19286.3062792264</v>
+        <v>94490.91501359343</v>
       </c>
       <c r="S21">
-        <v>0.05894552418025251</v>
+        <v>0.02975742241327425</v>
       </c>
       <c r="T21">
-        <v>0.05894552418025251</v>
+        <v>0.02975742241327425</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H22">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I22">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J22">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N22">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O22">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P22">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q22">
-        <v>39574.70499737482</v>
+        <v>22477.59642899163</v>
       </c>
       <c r="R22">
-        <v>39574.70499737482</v>
+        <v>202298.3678609247</v>
       </c>
       <c r="S22">
-        <v>0.1209537843367013</v>
+        <v>0.06370853732432862</v>
       </c>
       <c r="T22">
-        <v>0.1209537843367013</v>
+        <v>0.06370853732432863</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H23">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I23">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J23">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N23">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O23">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P23">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q23">
-        <v>44755.18070068792</v>
+        <v>24292.23609147358</v>
       </c>
       <c r="R23">
-        <v>44755.18070068792</v>
+        <v>218630.1248232622</v>
       </c>
       <c r="S23">
-        <v>0.13678708343575</v>
+        <v>0.06885179358985738</v>
       </c>
       <c r="T23">
-        <v>0.13678708343575</v>
+        <v>0.06885179358985739</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H24">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I24">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J24">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N24">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O24">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P24">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q24">
-        <v>8408.380126017018</v>
+        <v>4552.567981896637</v>
       </c>
       <c r="R24">
-        <v>8408.380126017018</v>
+        <v>40973.11183706973</v>
       </c>
       <c r="S24">
-        <v>0.02569887498721043</v>
+        <v>0.01290340130949742</v>
       </c>
       <c r="T24">
-        <v>0.02569887498721043</v>
+        <v>0.01290340130949742</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H25">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I25">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J25">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N25">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O25">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P25">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q25">
-        <v>6044.529656003068</v>
+        <v>3396.633065367978</v>
       </c>
       <c r="R25">
-        <v>6044.529656003068</v>
+        <v>30569.6975883118</v>
       </c>
       <c r="S25">
-        <v>0.01847414242197101</v>
+        <v>0.009627120279770598</v>
       </c>
       <c r="T25">
-        <v>0.01847414242197101</v>
+        <v>0.0096271202797706</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H26">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I26">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J26">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N26">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O26">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P26">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q26">
-        <v>245.2631595248562</v>
+        <v>4260.470803987527</v>
       </c>
       <c r="R26">
-        <v>245.2631595248562</v>
+        <v>38344.23723588774</v>
       </c>
       <c r="S26">
-        <v>0.0007496077937883624</v>
+        <v>0.01207550656461485</v>
       </c>
       <c r="T26">
-        <v>0.0007496077937883624</v>
+        <v>0.01207550656461485</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H27">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I27">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J27">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N27">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O27">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P27">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q27">
-        <v>1215.35521668884</v>
+        <v>19808.90177863269</v>
       </c>
       <c r="R27">
-        <v>1215.35521668884</v>
+        <v>178280.1160076942</v>
       </c>
       <c r="S27">
-        <v>0.003714539698568017</v>
+        <v>0.05614462214875678</v>
       </c>
       <c r="T27">
-        <v>0.003714539698568017</v>
+        <v>0.0561446221487568</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H28">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I28">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J28">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N28">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O28">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P28">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q28">
-        <v>2493.858775813793</v>
+        <v>42409.45807708891</v>
       </c>
       <c r="R28">
-        <v>2493.858775813793</v>
+        <v>381685.1226938002</v>
       </c>
       <c r="S28">
-        <v>0.007622082250669479</v>
+        <v>0.1202016661943412</v>
       </c>
       <c r="T28">
-        <v>0.007622082250669479</v>
+        <v>0.1202016661943412</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H29">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I29">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J29">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N29">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O29">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P29">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q29">
-        <v>2820.314141594902</v>
+        <v>45833.21759400018</v>
       </c>
       <c r="R29">
-        <v>2820.314141594902</v>
+        <v>412498.9583460016</v>
       </c>
       <c r="S29">
-        <v>0.008619841094629693</v>
+        <v>0.1299056713205891</v>
       </c>
       <c r="T29">
-        <v>0.008619841094629693</v>
+        <v>0.1299056713205892</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H30">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I30">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J30">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N30">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O30">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P30">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q30">
-        <v>529.8665541293819</v>
+        <v>8589.52786972891</v>
       </c>
       <c r="R30">
-        <v>529.8665541293819</v>
+        <v>77305.75082756019</v>
       </c>
       <c r="S30">
-        <v>0.001619452751944649</v>
+        <v>0.02434540804288006</v>
       </c>
       <c r="T30">
-        <v>0.001619452751944649</v>
+        <v>0.02434540804288007</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>843.4949546666667</v>
+      </c>
+      <c r="H31">
+        <v>2530.484864</v>
+      </c>
+      <c r="I31">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="J31">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>7.597645</v>
+      </c>
+      <c r="N31">
+        <v>22.792935</v>
+      </c>
+      <c r="O31">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="P31">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="Q31">
+        <v>6408.575224848427</v>
+      </c>
+      <c r="R31">
+        <v>57677.17702363584</v>
+      </c>
+      <c r="S31">
+        <v>0.01816390623427255</v>
+      </c>
+      <c r="T31">
+        <v>0.01816390623427256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>56.118235</v>
+      </c>
+      <c r="H32">
+        <v>168.354705</v>
+      </c>
+      <c r="I32">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J32">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>5.050973666666667</v>
+      </c>
+      <c r="N32">
+        <v>15.152921</v>
+      </c>
+      <c r="O32">
+        <v>0.03346528740141087</v>
+      </c>
+      <c r="P32">
+        <v>0.03346528740141087</v>
+      </c>
+      <c r="Q32">
+        <v>283.4517272048117</v>
+      </c>
+      <c r="R32">
+        <v>2551.065544843305</v>
+      </c>
+      <c r="S32">
+        <v>0.0008033908340387118</v>
+      </c>
+      <c r="T32">
+        <v>0.0008033908340387119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>56.118235</v>
+      </c>
+      <c r="H33">
+        <v>168.354705</v>
+      </c>
+      <c r="I33">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J33">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>23.48431566666666</v>
+      </c>
+      <c r="N33">
+        <v>70.45294699999999</v>
+      </c>
+      <c r="O33">
+        <v>0.1555956188005842</v>
+      </c>
+      <c r="P33">
+        <v>0.1555956188005842</v>
+      </c>
+      <c r="Q33">
+        <v>1317.898345396181</v>
+      </c>
+      <c r="R33">
+        <v>11861.08510856563</v>
+      </c>
+      <c r="S33">
+        <v>0.003735336035264431</v>
+      </c>
+      <c r="T33">
+        <v>0.003735336035264432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>56.118235</v>
+      </c>
+      <c r="H34">
+        <v>168.354705</v>
+      </c>
+      <c r="I34">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J34">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>50.27825933333333</v>
+      </c>
+      <c r="N34">
+        <v>150.834778</v>
+      </c>
+      <c r="O34">
+        <v>0.3331192181294949</v>
+      </c>
+      <c r="P34">
+        <v>0.333119218129495</v>
+      </c>
+      <c r="Q34">
+        <v>2821.527172658943</v>
+      </c>
+      <c r="R34">
+        <v>25393.74455393049</v>
+      </c>
+      <c r="S34">
+        <v>0.007997090336540651</v>
+      </c>
+      <c r="T34">
+        <v>0.007997090336540655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>56.118235</v>
+      </c>
+      <c r="H35">
+        <v>168.354705</v>
+      </c>
+      <c r="I35">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J35">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>54.33727533333333</v>
+      </c>
+      <c r="N35">
+        <v>163.011826</v>
+      </c>
+      <c r="O35">
+        <v>0.3600122779574169</v>
+      </c>
+      <c r="P35">
+        <v>0.3600122779574169</v>
+      </c>
+      <c r="Q35">
+        <v>3049.311986415703</v>
+      </c>
+      <c r="R35">
+        <v>27443.80787774133</v>
+      </c>
+      <c r="S35">
+        <v>0.00864270373008038</v>
+      </c>
+      <c r="T35">
+        <v>0.008642703730080383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>52.0757428876562</v>
-      </c>
-      <c r="H31">
-        <v>52.0757428876562</v>
-      </c>
-      <c r="I31">
-        <v>0.02348969909533606</v>
-      </c>
-      <c r="J31">
-        <v>0.02348969909533606</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>7.31444213747787</v>
-      </c>
-      <c r="N31">
-        <v>7.31444213747787</v>
-      </c>
-      <c r="O31">
-        <v>0.04956110765876134</v>
-      </c>
-      <c r="P31">
-        <v>0.04956110765876134</v>
-      </c>
-      <c r="Q31">
-        <v>380.9050081179359</v>
-      </c>
-      <c r="R31">
-        <v>380.9050081179359</v>
-      </c>
-      <c r="S31">
-        <v>0.00116417550573586</v>
-      </c>
-      <c r="T31">
-        <v>0.00116417550573586</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>56.118235</v>
+      </c>
+      <c r="H36">
+        <v>168.354705</v>
+      </c>
+      <c r="I36">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J36">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>10.18325933333333</v>
+      </c>
+      <c r="N36">
+        <v>30.549778</v>
+      </c>
+      <c r="O36">
+        <v>0.06746930844682017</v>
+      </c>
+      <c r="P36">
+        <v>0.06746930844682017</v>
+      </c>
+      <c r="Q36">
+        <v>571.4665403339434</v>
+      </c>
+      <c r="R36">
+        <v>5143.19886300549</v>
+      </c>
+      <c r="S36">
+        <v>0.00161971488052485</v>
+      </c>
+      <c r="T36">
+        <v>0.00161971488052485</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>56.118235</v>
+      </c>
+      <c r="H37">
+        <v>168.354705</v>
+      </c>
+      <c r="I37">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J37">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>7.597645</v>
+      </c>
+      <c r="N37">
+        <v>22.792935</v>
+      </c>
+      <c r="O37">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="P37">
+        <v>0.05033828926427299</v>
+      </c>
+      <c r="Q37">
+        <v>426.366427556575</v>
+      </c>
+      <c r="R37">
+        <v>3837.297848009175</v>
+      </c>
+      <c r="S37">
+        <v>0.001208455786170874</v>
+      </c>
+      <c r="T37">
+        <v>0.001208455786170874</v>
       </c>
     </row>
   </sheetData>
